--- a/mapping_template.xlsx
+++ b/mapping_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinakorshoejwinslow/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD352E3-0B10-1444-84BA-2983FC9C49F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47251022-F1E7-BE40-90D4-F8715DCC680A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16000" xr2:uid="{6981B5DD-70AD-8A43-8EA5-44E4BB9B9403}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
